--- a/nr-update-sql-request/ig/StructureDefinition-as-device.xlsx
+++ b/nr-update-sql-request/ig/StructureDefinition-as-device.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T13:09:27+00:00</t>
+    <t>2025-01-27T13:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
